--- a/data_month/zb/固定资产投资(不含农户)/固定资产投资项目计划总投资增长情况.xlsx
+++ b/data_month/zb/固定资产投资(不含农户)/固定资产投资项目计划总投资增长情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,1792 +448,1792 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.4</v>
+        <v>83.2</v>
       </c>
       <c r="C2" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>74.8</v>
       </c>
       <c r="C3" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.5</v>
+        <v>44.9</v>
       </c>
       <c r="C4" t="n">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.2</v>
+        <v>37.4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.8</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.9</v>
+        <v>37.3</v>
       </c>
       <c r="C7" t="n">
-        <v>4.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.4</v>
+        <v>39.5</v>
       </c>
       <c r="C8" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>38.6</v>
       </c>
       <c r="C9" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.3</v>
+        <v>32.4</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.5</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.6</v>
+        <v>25.5</v>
       </c>
       <c r="C12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>93.5</v>
       </c>
       <c r="C13" t="n">
-        <v>4.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.2</v>
+        <v>27.5</v>
       </c>
       <c r="C14" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.4</v>
+        <v>43.6</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.5</v>
+        <v>51.1</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.5</v>
+        <v>48.4</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.6</v>
+        <v>53.1</v>
       </c>
       <c r="C18" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.1</v>
+        <v>50.1</v>
       </c>
       <c r="C19" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.4</v>
+        <v>523</v>
       </c>
       <c r="C20" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.1</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.1</v>
+        <v>45.2</v>
       </c>
       <c r="C22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>523</v>
+        <v>32.4</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.9</v>
+        <v>49.5</v>
       </c>
       <c r="C24" t="n">
-        <v>16.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.3</v>
+        <v>44.7</v>
       </c>
       <c r="C25" t="n">
-        <v>16.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.9</v>
+        <v>33.5</v>
       </c>
       <c r="C26" t="n">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.5</v>
+        <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.7</v>
+        <v>33.2</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.5</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33.7</v>
+        <v>32.7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.7</v>
+        <v>33.3</v>
       </c>
       <c r="C33" t="n">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.9</v>
+        <v>28.9</v>
       </c>
       <c r="C34" t="n">
-        <v>16.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56.4</v>
+        <v>43.5</v>
       </c>
       <c r="C35" t="n">
-        <v>30.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.5</v>
+        <v>63.3</v>
       </c>
       <c r="C36" t="n">
-        <v>31.7</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.7</v>
+        <v>57</v>
       </c>
       <c r="C37" t="n">
-        <v>33.2</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.5</v>
+        <v>68.7</v>
       </c>
       <c r="C38" t="n">
-        <v>19.8</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63.3</v>
+        <v>70.5</v>
       </c>
       <c r="C39" t="n">
-        <v>24.6</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>20.9</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.7</v>
+        <v>63.7</v>
       </c>
       <c r="C41" t="n">
-        <v>23.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70.5</v>
+        <v>61.6</v>
       </c>
       <c r="C42" t="n">
-        <v>26.2</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.09999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="C43" t="n">
-        <v>28.2</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63.7</v>
+        <v>58.5</v>
       </c>
       <c r="C44" t="n">
-        <v>28.5</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61.6</v>
+        <v>54.7</v>
       </c>
       <c r="C45" t="n">
-        <v>29.5</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.6</v>
+        <v>105.6</v>
       </c>
       <c r="C46" t="n">
-        <v>31.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>30.2</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>24.4</v>
+        <v>59.1</v>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>105.6</v>
+        <v>30.6</v>
       </c>
       <c r="C49" t="n">
-        <v>52.3</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>67.40000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="C50" t="n">
-        <v>39.8</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>59.1</v>
+        <v>27.3</v>
       </c>
       <c r="C51" t="n">
-        <v>40.5</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>30.6</v>
+        <v>26.9</v>
       </c>
       <c r="C52" t="n">
-        <v>36.1</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>30.8</v>
+        <v>25.4</v>
       </c>
       <c r="C53" t="n">
-        <v>34.4</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C54" t="n">
-        <v>38.1</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="C55" t="n">
-        <v>33.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25.4</v>
+        <v>24.4</v>
       </c>
       <c r="C56" t="n">
-        <v>32.1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>28.5</v>
+        <v>-6.6</v>
       </c>
       <c r="C57" t="n">
-        <v>27.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>28.1</v>
+        <v>1.5</v>
       </c>
       <c r="C58" t="n">
-        <v>28.2</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>32.3652948421008</v>
+        <v>13.5</v>
       </c>
       <c r="C59" t="n">
-        <v>29</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-6.6</v>
+        <v>24.9</v>
       </c>
       <c r="C60" t="n">
-        <v>21.4</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.5</v>
+        <v>24.3</v>
       </c>
       <c r="C61" t="n">
-        <v>26.7</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13.5</v>
+        <v>28.4</v>
       </c>
       <c r="C62" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>24.9</v>
+        <v>28.4</v>
       </c>
       <c r="C63" t="n">
-        <v>28.7</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24.3</v>
+        <v>27.9</v>
       </c>
       <c r="C64" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C65" t="n">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="C66" t="n">
-        <v>29.7</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27.9</v>
+        <v>32.3652948421008</v>
       </c>
       <c r="C67" t="n">
-        <v>27.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.4</v>
+        <v>33.4</v>
       </c>
       <c r="C68" t="n">
-        <v>22.6</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.7</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>21.3</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-4.4</v>
+        <v>32.2</v>
       </c>
       <c r="C70" t="n">
-        <v>19.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>33.4</v>
+        <v>23.6</v>
       </c>
       <c r="C71" t="n">
-        <v>39.8</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>42</v>
+        <v>22.2</v>
       </c>
       <c r="C72" t="n">
-        <v>30.1</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>32.2</v>
+        <v>19.3</v>
       </c>
       <c r="C73" t="n">
-        <v>29.2</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>23.6</v>
+        <v>11.4</v>
       </c>
       <c r="C74" t="n">
-        <v>26.9</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>22.2</v>
+        <v>7.5</v>
       </c>
       <c r="C75" t="n">
-        <v>26.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19.3</v>
+        <v>4.4</v>
       </c>
       <c r="C76" t="n">
-        <v>24.8</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.4</v>
+        <v>3.7</v>
       </c>
       <c r="C77" t="n">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.5</v>
+        <v>-4.4</v>
       </c>
       <c r="C78" t="n">
-        <v>23.6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>26.5</v>
+        <v>-35.8</v>
       </c>
       <c r="C79" t="n">
-        <v>18.7</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>28</v>
+        <v>-13.9</v>
       </c>
       <c r="C80" t="n">
-        <v>20.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>28.7</v>
+        <v>-2.2</v>
       </c>
       <c r="C81" t="n">
-        <v>21.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-35.8</v>
+        <v>6.1</v>
       </c>
       <c r="C82" t="n">
-        <v>9.300000000000001</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-13.9</v>
+        <v>6.4</v>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-2.2</v>
+        <v>14.6</v>
       </c>
       <c r="C84" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.1</v>
+        <v>16.7</v>
       </c>
       <c r="C85" t="n">
-        <v>16.1</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6.4</v>
+        <v>24.2</v>
       </c>
       <c r="C86" t="n">
-        <v>15.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>14.6</v>
+        <v>26.5</v>
       </c>
       <c r="C87" t="n">
-        <v>17.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16.7</v>
+        <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>17.9</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>24.2</v>
+        <v>28.7</v>
       </c>
       <c r="C89" t="n">
-        <v>18.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="C90" t="n">
-        <v>19.2</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5.4</v>
+        <v>-4.4</v>
       </c>
       <c r="C91" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="C92" t="n">
-        <v>19.9</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="C93" t="n">
-        <v>22.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-4.4</v>
+        <v>1.5</v>
       </c>
       <c r="C94" t="n">
-        <v>19.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-5.1</v>
+        <v>-2.9</v>
       </c>
       <c r="C95" t="n">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="C96" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C97" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-2.9</v>
+        <v>3.2</v>
       </c>
       <c r="C98" t="n">
-        <v>17.4</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="C99" t="n">
-        <v>17.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="C100" t="n">
-        <v>18.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>81.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="C101" t="n">
-        <v>36.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>76.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="C102" t="n">
-        <v>36.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>67.2</v>
+        <v>90.7</v>
       </c>
       <c r="C103" t="n">
-        <v>32.3</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>87.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>25.4</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>87.7</v>
+        <v>87.3</v>
       </c>
       <c r="C105" t="n">
-        <v>26.7</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>90.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>29.8</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>95.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="C107" t="n">
-        <v>33.8</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>87.3</v>
+        <v>83</v>
       </c>
       <c r="C108" t="n">
-        <v>36.1</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>83.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>81.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>83</v>
+        <v>67.2</v>
       </c>
       <c r="C111" t="n">
-        <v>37.1</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>23.8</v>
+        <v>42.7</v>
       </c>
       <c r="C112" t="n">
-        <v>25.7</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25.9</v>
+        <v>34.5</v>
       </c>
       <c r="C113" t="n">
-        <v>26.8</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25.6</v>
+        <v>31.3</v>
       </c>
       <c r="C114" t="n">
-        <v>23.1</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>42.7</v>
+        <v>26.5</v>
       </c>
       <c r="C115" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>34.5</v>
+        <v>26.5</v>
       </c>
       <c r="C116" t="n">
-        <v>30.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>31.3</v>
+        <v>26.8</v>
       </c>
       <c r="C117" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C118" t="n">
-        <v>28.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>26.8</v>
+        <v>23.8</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C121" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>24.5</v>
+        <v>25.6</v>
       </c>
       <c r="C122" t="n">
-        <v>26.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>24.1</v>
+        <v>-23.6</v>
       </c>
       <c r="C123" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>24</v>
+        <v>-12.7</v>
       </c>
       <c r="C124" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>22.5</v>
+        <v>-1.1</v>
       </c>
       <c r="C125" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-23.6</v>
+        <v>6.3</v>
       </c>
       <c r="C126" t="n">
-        <v>21.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-12.7</v>
+        <v>14.9</v>
       </c>
       <c r="C127" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1.1</v>
+        <v>19.3</v>
       </c>
       <c r="C128" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6.3</v>
+        <v>23.1</v>
       </c>
       <c r="C129" t="n">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>14.9</v>
+        <v>23.4</v>
       </c>
       <c r="C130" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>19.3</v>
+        <v>24.1</v>
       </c>
       <c r="C131" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="C132" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="C133" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>26.7</v>
+        <v>23.2</v>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>28.8</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>16.3</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>28.6</v>
+        <v>21.6</v>
       </c>
       <c r="C136" t="n">
-        <v>18.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>23.2</v>
+        <v>22</v>
       </c>
       <c r="C137" t="n">
-        <v>12.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C138" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>21.6</v>
+        <v>23.6</v>
       </c>
       <c r="C139" t="n">
         <v>14.5</v>
@@ -2242,115 +2242,115 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>22</v>
+        <v>24.9</v>
       </c>
       <c r="C140" t="n">
-        <v>16</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>23.2</v>
+        <v>25.7</v>
       </c>
       <c r="C141" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>23.6</v>
+        <v>26.7</v>
       </c>
       <c r="C142" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>24.9</v>
+        <v>28.8</v>
       </c>
       <c r="C143" t="n">
-        <v>14.2</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>25.7</v>
+        <v>28.6</v>
       </c>
       <c r="C144" t="n">
-        <v>14.9</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>14.4</v>
+        <v>10.1</v>
       </c>
       <c r="C145" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C146" t="n">
-        <v>17.9</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="C147" t="n">
-        <v>16.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>10.1</v>
+        <v>15.6</v>
       </c>
       <c r="C148" t="n">
         <v>18.8</v>
@@ -2359,24 +2359,24 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14</v>
+        <v>15.1</v>
       </c>
       <c r="C149" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>15.7</v>
+        <v>13.2</v>
       </c>
       <c r="C150" t="n">
         <v>18.8</v>
@@ -2385,856 +2385,856 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="C151" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="C152" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="C153" t="n">
-        <v>18.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C154" t="n">
-        <v>18.9</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="C155" t="n">
-        <v>18.6</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="C156" t="n">
-        <v>11.1</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>14.7</v>
+        <v>12.6</v>
       </c>
       <c r="C157" t="n">
-        <v>16.8</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C158" t="n">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C159" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="C160" t="n">
-        <v>13.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="C161" t="n">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C162" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C163" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="C164" t="n">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.1</v>
+        <v>-1.8</v>
       </c>
       <c r="C165" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="C166" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5.5</v>
+        <v>0.2</v>
       </c>
       <c r="C167" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1.8</v>
+        <v>0.5</v>
       </c>
       <c r="C168" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="C170" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="C171" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="C172" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="C173" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="C174" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="C175" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>21.8</v>
+        <v>41.1</v>
       </c>
       <c r="C176" t="n">
-        <v>9.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>21</v>
+        <v>39.5</v>
       </c>
       <c r="C177" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>20.9</v>
+        <v>38</v>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>41.1</v>
+        <v>32.2</v>
       </c>
       <c r="C179" t="n">
-        <v>13.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>39.5</v>
+        <v>25.1</v>
       </c>
       <c r="C180" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C181" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>32.2</v>
+        <v>22.7</v>
       </c>
       <c r="C182" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>25.1</v>
+        <v>22.6</v>
       </c>
       <c r="C183" t="n">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>24</v>
+        <v>21.8</v>
       </c>
       <c r="C184" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>22.7</v>
+        <v>21</v>
       </c>
       <c r="C185" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="C186" t="n">
-        <v>9.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>18.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="C188" t="n">
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="C189" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-8.300000000000001</v>
+        <v>-5.6</v>
       </c>
       <c r="C190" t="n">
-        <v>22</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-6.5</v>
+        <v>-1.2</v>
       </c>
       <c r="C191" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-5.9</v>
+        <v>1.9</v>
       </c>
       <c r="C192" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-5.6</v>
+        <v>2.2</v>
       </c>
       <c r="C193" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1.2</v>
+        <v>2.4</v>
       </c>
       <c r="C194" t="n">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="C195" t="n">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="C196" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="C197" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-18</v>
+        <v>-22.8</v>
       </c>
       <c r="C198" t="n">
-        <v>6.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-17.9</v>
+        <v>-20.8</v>
       </c>
       <c r="C199" t="n">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-17.7</v>
+        <v>-13.7</v>
       </c>
       <c r="C200" t="n">
-        <v>6.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-22.8</v>
+        <v>-17.290711982625</v>
       </c>
       <c r="C201" t="n">
-        <v>12.1</v>
+        <v>11.466606341456</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-20.8</v>
+        <v>-18.8</v>
       </c>
       <c r="C202" t="n">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-13.7</v>
+        <v>-17.5</v>
       </c>
       <c r="C203" t="n">
-        <v>12.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-17.290711982625</v>
+        <v>-18.3</v>
       </c>
       <c r="C204" t="n">
-        <v>11.466606341456</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-18.8</v>
+        <v>-18.2815595337838</v>
       </c>
       <c r="C205" t="n">
-        <v>10.7</v>
+        <v>8.071878482160869</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-17.5</v>
+        <v>-18</v>
       </c>
       <c r="C206" t="n">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-18.3</v>
+        <v>-17.9</v>
       </c>
       <c r="C207" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-18.2815595337838</v>
+        <v>-17.7</v>
       </c>
       <c r="C208" t="n">
-        <v>8.071878482160869</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-4.4</v>
+        <v>4.9</v>
       </c>
       <c r="C209" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1.5</v>
+        <v>2.3</v>
       </c>
       <c r="C210" t="n">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.1</v>
+        <v>-5.6</v>
       </c>
       <c r="C211" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4.9</v>
+        <v>-12.5</v>
       </c>
       <c r="C212" t="n">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2.3</v>
+        <v>-9.9</v>
       </c>
       <c r="C213" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-5.6</v>
+        <v>-10.2</v>
       </c>
       <c r="C214" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-12.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-9.9</v>
+        <v>-7</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
@@ -3243,326 +3243,326 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-10.2</v>
+        <v>-4.4</v>
       </c>
       <c r="C217" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-8.800000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="C218" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-7</v>
+        <v>1.1</v>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>14.9</v>
+        <v>-47.1</v>
       </c>
       <c r="C220" t="n">
-        <v>8.9</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>12.5</v>
+        <v>-22</v>
       </c>
       <c r="C221" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="C222" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-47.1</v>
+        <v>7.9</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-22</v>
+        <v>13.5</v>
       </c>
       <c r="C224" t="n">
-        <v>3.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1.1</v>
+        <v>15.8</v>
       </c>
       <c r="C225" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7.9</v>
+        <v>12.1</v>
       </c>
       <c r="C226" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
       <c r="C227" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="C228" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C229" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>14.6</v>
+        <v>11.9</v>
       </c>
       <c r="C230" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2.3</v>
+        <v>53.8</v>
       </c>
       <c r="C231" t="n">
-        <v>9.800000000000001</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2.7</v>
+        <v>29.3</v>
       </c>
       <c r="C232" t="n">
-        <v>10.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3.3</v>
+        <v>14.4</v>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>53.8</v>
+        <v>9</v>
       </c>
       <c r="C234" t="n">
-        <v>17.3</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>29.3</v>
+        <v>2.7</v>
       </c>
       <c r="C235" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>14.4</v>
+        <v>0.5</v>
       </c>
       <c r="C236" t="n">
-        <v>13.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="C237" t="n">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="C238" t="n">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="C239" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="C240" t="n">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C241" t="n">
-        <v>10.7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/固定资产投资(不含农户)/固定资产投资项目计划总投资增长情况.xlsx
+++ b/data_month/zb/固定资产投资(不含农户)/固定资产投资项目计划总投资增长情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,3121 +448,1925 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000-02</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.2</v>
+        <v>23.8</v>
       </c>
       <c r="C2" t="n">
-        <v>7.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000-03</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.8</v>
+        <v>25.9</v>
       </c>
       <c r="C3" t="n">
-        <v>2.3</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000-04</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.9</v>
+        <v>25.6</v>
       </c>
       <c r="C4" t="n">
-        <v>4.9</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.4</v>
+        <v>42.7</v>
       </c>
       <c r="C5" t="n">
-        <v>6.3</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.3</v>
+        <v>31.3</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.5</v>
+        <v>26.5</v>
       </c>
       <c r="C8" t="n">
-        <v>7.9</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.6</v>
+        <v>26.5</v>
       </c>
       <c r="C9" t="n">
-        <v>8.699999999999999</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.4</v>
+        <v>26.8</v>
       </c>
       <c r="C10" t="n">
-        <v>8.699999999999999</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="C11" t="n">
-        <v>8.6</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="C12" t="n">
-        <v>8.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.5</v>
+        <v>24.1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>3.1</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.6</v>
+        <v>22.5</v>
       </c>
       <c r="C15" t="n">
-        <v>3.7</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.1</v>
+        <v>-23.6</v>
       </c>
       <c r="C16" t="n">
-        <v>3.4</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.4</v>
+        <v>-12.7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.8</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.1</v>
+        <v>-1.1</v>
       </c>
       <c r="C18" t="n">
-        <v>4.4</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.1</v>
+        <v>6.3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>523</v>
+        <v>14.9</v>
       </c>
       <c r="C20" t="n">
-        <v>4.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>19.3</v>
       </c>
       <c r="C21" t="n">
-        <v>4.7</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.2</v>
+        <v>23.1</v>
       </c>
       <c r="C22" t="n">
-        <v>4.1</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.4</v>
+        <v>23.4</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.5</v>
+        <v>26.7</v>
       </c>
       <c r="C24" t="n">
-        <v>12.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.7</v>
+        <v>28.8</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.5</v>
+        <v>28.6</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.7</v>
+        <v>23.2</v>
       </c>
       <c r="C27" t="n">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.2</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>21.6</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.7</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.9</v>
+        <v>23.2</v>
       </c>
       <c r="C31" t="n">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.9</v>
+        <v>23.6</v>
       </c>
       <c r="C32" t="n">
-        <v>16.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33.3</v>
+        <v>24.9</v>
       </c>
       <c r="C33" t="n">
-        <v>16.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.9</v>
+        <v>25.7</v>
       </c>
       <c r="C34" t="n">
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.5</v>
+        <v>14.4</v>
       </c>
       <c r="C35" t="n">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63.3</v>
+        <v>14.3</v>
       </c>
       <c r="C36" t="n">
-        <v>24.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57</v>
+        <v>14.2</v>
       </c>
       <c r="C37" t="n">
-        <v>20.9</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.7</v>
+        <v>10.1</v>
       </c>
       <c r="C38" t="n">
-        <v>23.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.5</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>26.2</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.09999999999999</v>
+        <v>15.7</v>
       </c>
       <c r="C40" t="n">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.7</v>
+        <v>15.6</v>
       </c>
       <c r="C41" t="n">
-        <v>28.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.6</v>
+        <v>15.1</v>
       </c>
       <c r="C42" t="n">
-        <v>29.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.4</v>
+        <v>13.2</v>
       </c>
       <c r="C43" t="n">
-        <v>30.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58.5</v>
+        <v>14.4</v>
       </c>
       <c r="C44" t="n">
-        <v>31.7</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.7</v>
+        <v>13.3</v>
       </c>
       <c r="C45" t="n">
-        <v>33.2</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004-02</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.6</v>
+        <v>13.7</v>
       </c>
       <c r="C46" t="n">
-        <v>52.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67.40000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="C47" t="n">
-        <v>39.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>59.1</v>
+        <v>13.6</v>
       </c>
       <c r="C48" t="n">
-        <v>40.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30.6</v>
+        <v>15.9</v>
       </c>
       <c r="C49" t="n">
-        <v>36.1</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30.8</v>
+        <v>12.6</v>
       </c>
       <c r="C50" t="n">
-        <v>34.4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>27.3</v>
+        <v>12.8</v>
       </c>
       <c r="C51" t="n">
-        <v>38.1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26.9</v>
+        <v>12.7</v>
       </c>
       <c r="C52" t="n">
-        <v>33.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25.4</v>
+        <v>13.6</v>
       </c>
       <c r="C53" t="n">
-        <v>32.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27.6</v>
+        <v>14.6</v>
       </c>
       <c r="C54" t="n">
-        <v>31.9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>27.3</v>
+        <v>14.9</v>
       </c>
       <c r="C55" t="n">
-        <v>30.2</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>24.4</v>
+        <v>14.4</v>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005-02</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-6.6</v>
+        <v>4.1</v>
       </c>
       <c r="C57" t="n">
-        <v>21.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="C58" t="n">
-        <v>26.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="C59" t="n">
-        <v>26.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>24.9</v>
+        <v>-1.8</v>
       </c>
       <c r="C60" t="n">
-        <v>28.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>24.3</v>
+        <v>6.1</v>
       </c>
       <c r="C61" t="n">
-        <v>28.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28.4</v>
+        <v>0.2</v>
       </c>
       <c r="C62" t="n">
-        <v>26.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>28.4</v>
+        <v>0.5</v>
       </c>
       <c r="C63" t="n">
-        <v>29.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>27.9</v>
+        <v>1.6</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>28.5</v>
+        <v>2.4</v>
       </c>
       <c r="C65" t="n">
-        <v>27.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28.1</v>
+        <v>2.7</v>
       </c>
       <c r="C66" t="n">
-        <v>28.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>32.3652948421008</v>
+        <v>2.8</v>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006-02</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33.4</v>
+        <v>21.8</v>
       </c>
       <c r="C68" t="n">
-        <v>39.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>30.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>32.2</v>
+        <v>20.9</v>
       </c>
       <c r="C70" t="n">
-        <v>29.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23.6</v>
+        <v>41.1</v>
       </c>
       <c r="C71" t="n">
-        <v>26.9</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22.2</v>
+        <v>39.5</v>
       </c>
       <c r="C72" t="n">
-        <v>26.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19.3</v>
+        <v>38</v>
       </c>
       <c r="C73" t="n">
-        <v>24.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11.4</v>
+        <v>32.2</v>
       </c>
       <c r="C74" t="n">
-        <v>23.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B75" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C75" t="n">
         <v>7.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>23.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.4</v>
+        <v>24</v>
       </c>
       <c r="C76" t="n">
-        <v>22.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.7</v>
+        <v>22.7</v>
       </c>
       <c r="C77" t="n">
-        <v>21.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-4.4</v>
+        <v>22.6</v>
       </c>
       <c r="C78" t="n">
-        <v>19.2</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-35.8</v>
+        <v>3.8</v>
       </c>
       <c r="C79" t="n">
-        <v>9.300000000000001</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-13.9</v>
+        <v>6.2</v>
       </c>
       <c r="C80" t="n">
-        <v>16</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-2.2</v>
+        <v>6.2</v>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6.1</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>16.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="C83" t="n">
-        <v>15.8</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>14.6</v>
+        <v>-5.9</v>
       </c>
       <c r="C84" t="n">
-        <v>17.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>16.7</v>
+        <v>-5.6</v>
       </c>
       <c r="C85" t="n">
-        <v>17.9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>24.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C86" t="n">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>26.5</v>
+        <v>1.9</v>
       </c>
       <c r="C87" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>28</v>
+        <v>2.2</v>
       </c>
       <c r="C88" t="n">
-        <v>20.1</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>28.7</v>
+        <v>2.4</v>
       </c>
       <c r="C89" t="n">
-        <v>21.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-2.6</v>
+        <v>-18</v>
       </c>
       <c r="C90" t="n">
-        <v>22.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-4.4</v>
+        <v>-17.9</v>
       </c>
       <c r="C91" t="n">
-        <v>19.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-5.1</v>
+        <v>-17.7</v>
       </c>
       <c r="C92" t="n">
-        <v>16.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.5</v>
+        <v>-22.8</v>
       </c>
       <c r="C93" t="n">
-        <v>17.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.5</v>
+        <v>-20.8</v>
       </c>
       <c r="C94" t="n">
-        <v>17.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-2.9</v>
+        <v>-13.7</v>
       </c>
       <c r="C95" t="n">
-        <v>17.4</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.5</v>
+        <v>-17.290711982625</v>
       </c>
       <c r="C96" t="n">
-        <v>17.7</v>
+        <v>11.466606341456</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.7</v>
+        <v>-18.8</v>
       </c>
       <c r="C97" t="n">
-        <v>18.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.2</v>
+        <v>-17.5</v>
       </c>
       <c r="C98" t="n">
-        <v>19.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.4</v>
+        <v>-18.3</v>
       </c>
       <c r="C99" t="n">
-        <v>19.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.4</v>
+        <v>-18.2815595337838</v>
       </c>
       <c r="C100" t="n">
-        <v>19.9</v>
+        <v>8.071878482160869</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>87.5</v>
+        <v>-4.4</v>
       </c>
       <c r="C101" t="n">
-        <v>25.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>87.7</v>
+        <v>-1.5</v>
       </c>
       <c r="C102" t="n">
-        <v>26.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>90.7</v>
+        <v>1.1</v>
       </c>
       <c r="C103" t="n">
-        <v>29.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>95.90000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="C104" t="n">
-        <v>33.8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>87.3</v>
+        <v>2.3</v>
       </c>
       <c r="C105" t="n">
-        <v>36.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>83.09999999999999</v>
+        <v>-5.6</v>
       </c>
       <c r="C106" t="n">
-        <v>36.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>81.7</v>
+        <v>-12.5</v>
       </c>
       <c r="C107" t="n">
-        <v>36.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>83</v>
+        <v>-9.9</v>
       </c>
       <c r="C108" t="n">
-        <v>37.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>81.09999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="C109" t="n">
-        <v>36.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>76.59999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>36.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>67.2</v>
+        <v>-7</v>
       </c>
       <c r="C111" t="n">
-        <v>32.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>42.7</v>
+        <v>14.9</v>
       </c>
       <c r="C112" t="n">
-        <v>29.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34.5</v>
+        <v>12.5</v>
       </c>
       <c r="C113" t="n">
-        <v>30.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>31.3</v>
+        <v>11.9</v>
       </c>
       <c r="C114" t="n">
-        <v>27.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>26.5</v>
+        <v>-47.1</v>
       </c>
       <c r="C115" t="n">
-        <v>28.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>26.5</v>
+        <v>-22</v>
       </c>
       <c r="C116" t="n">
-        <v>27</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>26.8</v>
+        <v>1.1</v>
       </c>
       <c r="C117" t="n">
-        <v>27</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>26.3</v>
+        <v>7.9</v>
       </c>
       <c r="C118" t="n">
-        <v>27.3</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>24.5</v>
+        <v>13.5</v>
       </c>
       <c r="C119" t="n">
-        <v>26.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>23.8</v>
+        <v>15.8</v>
       </c>
       <c r="C120" t="n">
-        <v>25.7</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25.9</v>
+        <v>12.1</v>
       </c>
       <c r="C121" t="n">
-        <v>26.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25.6</v>
+        <v>14.6</v>
       </c>
       <c r="C122" t="n">
-        <v>23.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-23.6</v>
+        <v>2.3</v>
       </c>
       <c r="C123" t="n">
-        <v>21.4</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-12.7</v>
+        <v>2.7</v>
       </c>
       <c r="C124" t="n">
-        <v>19.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1.1</v>
+        <v>3.3</v>
       </c>
       <c r="C125" t="n">
-        <v>19.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.3</v>
+        <v>53.8</v>
       </c>
       <c r="C126" t="n">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>14.9</v>
+        <v>29.3</v>
       </c>
       <c r="C127" t="n">
-        <v>19.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>19.3</v>
+        <v>14.4</v>
       </c>
       <c r="C128" t="n">
-        <v>19.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>23.1</v>
+        <v>9</v>
       </c>
       <c r="C129" t="n">
-        <v>20.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>23.4</v>
+        <v>2.7</v>
       </c>
       <c r="C130" t="n">
-        <v>19.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>24.1</v>
+        <v>0.5</v>
       </c>
       <c r="C131" t="n">
-        <v>19.8</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>4.6</v>
       </c>
       <c r="C132" t="n">
-        <v>19.5</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>22.5</v>
+        <v>3.4</v>
       </c>
       <c r="C133" t="n">
-        <v>18.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C134" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>23</v>
+        <v>20.3</v>
       </c>
       <c r="C135" t="n">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="C136" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>22</v>
+        <v>62.8</v>
       </c>
       <c r="C137" t="n">
-        <v>16</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>23.2</v>
+        <v>54.9</v>
       </c>
       <c r="C138" t="n">
-        <v>15.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>23.6</v>
+        <v>28</v>
       </c>
       <c r="C139" t="n">
-        <v>14.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>24.9</v>
+        <v>23.3</v>
       </c>
       <c r="C140" t="n">
-        <v>14.2</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>25.7</v>
+        <v>22.9</v>
       </c>
       <c r="C141" t="n">
-        <v>14.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>26.7</v>
+        <v>21.2</v>
       </c>
       <c r="C142" t="n">
-        <v>16</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>28.8</v>
+        <v>18.9</v>
       </c>
       <c r="C143" t="n">
-        <v>16.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>28.6</v>
+        <v>20.8</v>
       </c>
       <c r="C144" t="n">
-        <v>18.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>10.1</v>
+        <v>11.8</v>
       </c>
       <c r="C145" t="n">
-        <v>18.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>14</v>
+        <v>6.9</v>
       </c>
       <c r="C146" t="n">
-        <v>19.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>15.7</v>
+        <v>-0.4</v>
       </c>
       <c r="C147" t="n">
-        <v>18.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15.6</v>
+        <v>-9.1</v>
       </c>
       <c r="C148" t="n">
-        <v>18.8</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>15.1</v>
+        <v>-10.2</v>
       </c>
       <c r="C149" t="n">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>2013-07</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>2013-08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>2013-09</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>2013-10</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>2013-11</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>2013-12</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>2014-03</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>2014-04</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2014-06</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C160" t="n">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>2014-07</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>2014-08</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C162" t="n">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>2014-09</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>2014-12</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2015-03</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2015-04</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2015-06</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2015-07</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2015-08</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2015-09</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2015-10</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2015-11</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2015-12</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2016-03</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>2016-04</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>38</v>
-      </c>
-      <c r="C178" t="n">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>2016-06</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>2016-07</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>24</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>2016-08</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>2016-09</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C183" t="n">
         <v>9.1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>2016-10</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>2016-11</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>21</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>2016-12</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C186" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="C187" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>2017-03</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>2017-04</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="C189" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="C190" t="n">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>2017-06</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="C191" t="n">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>2017-07</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>2017-08</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>2017-09</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C194" t="n">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>2017-10</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C195" t="n">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>2017-11</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>-22.8</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>2018-03</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>2018-04</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>-13.7</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>-17.290711982625</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.466606341456</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>2018-06</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>-18.8</v>
-      </c>
-      <c r="C202" t="n">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>2018-07</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>-18.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>-18.2815595337838</v>
-      </c>
-      <c r="C205" t="n">
-        <v>8.071878482160869</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>-18</v>
-      </c>
-      <c r="C206" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>-17.9</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>-17.7</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C209" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C210" t="n">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>-7</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>-47.1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>-22</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C225" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C227" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C228" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C229" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C230" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="C231" t="n">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C232" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C233" t="n">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>9</v>
-      </c>
-      <c r="C234" t="n">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C235" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C236" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C237" t="n">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C238" t="n">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C239" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C241" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
